--- a/startGameParam.xlsx
+++ b/startGameParam.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Java\CorrectionTP4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Documents\Cours\IMT\algo\CantStop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17D6D9-F9EC-4DF5-97B3-7CCD313EC00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917683F-A3FC-4186-A389-21A2DE890ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1D34EB6D-89D6-45FB-B241-15B96EE3B4BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1D34EB6D-89D6-45FB-B241-15B96EE3B4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="startGameParam" sheetId="4" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +101,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1459,7 +1460,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4174,6 +4175,860 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7906</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7980</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7890</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7862</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7833</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7853</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7894</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7870</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7889</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7966</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7837</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7845</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7828</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7845</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7883</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7919</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7946</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7883</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7927</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7922</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7987</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7893</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7879</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7905</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7868</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7931</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7915</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7946</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7808</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7945</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7954</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7926</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7948</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7919</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7904</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7894</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7972</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7881</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7963</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7912</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7890</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7931</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7955</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7971</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7871</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7917</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7871</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7834</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7933</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7840</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7909</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7923</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7911</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7981</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7869</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7834</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7926</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7932</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7884</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7915</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7835</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7982</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7903</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7877</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7924</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82A6-4E04-8F8B-220892489495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="554922888"/>
+        <c:axId val="554930760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554922888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554930760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554930760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554922888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4215,6 +5070,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5273,6 +6168,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5355,8 +6766,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C519D5-9746-23F0-3BB3-65D75E306820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5658,7 +7110,7 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -7113,11 +8565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF5E9E-4686-4F88-B519-E590741BC508}">
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -10329,6 +11781,822 @@
       </c>
       <c r="B400">
         <v>8239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FDE44C-F91E-442A-8BCB-7CB901F63F32}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.9</v>
+      </c>
+      <c r="B1">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="B2">
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="B3">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="B4">
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B5">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="B6">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="B7">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="B8">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="B9">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="B10">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.91</v>
+      </c>
+      <c r="B11">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="B12">
+        <v>7906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="B13">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="B14">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="B15">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="B16">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="B17">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="B18">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="B19">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="B20">
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.92</v>
+      </c>
+      <c r="B21">
+        <v>7924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B22">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="B23">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="B24">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="B25">
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B26">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="B27">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="B28">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="B29">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="B30">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.93</v>
+      </c>
+      <c r="B31">
+        <v>7889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="B32">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="B33">
+        <v>7958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="B34">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="B35">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="B36">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="B37">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="B38">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="B39">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="B40">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.94</v>
+      </c>
+      <c r="B41">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="B42">
+        <v>7919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="B43">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="B44">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="B45">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B46">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="B47">
+        <v>7922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="B48">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="B49">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="B50">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.95</v>
+      </c>
+      <c r="B51">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="B52">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="B53">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="B54">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B55">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="B56">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="B57">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="B58">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="B59">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="B60">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.96</v>
+      </c>
+      <c r="B61">
+        <v>7948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="B62">
+        <v>7919</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="B63">
+        <v>7916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="B64">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="B65">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="B66">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="B67">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="B68">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="B69">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="B70">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.97</v>
+      </c>
+      <c r="B71">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="B72">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="B73">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="B74">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="B75">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B76">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="B77">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="B78">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="B79">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="B80">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.98</v>
+      </c>
+      <c r="B81">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="B82">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="B83">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="B84">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="B85">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="B86">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="B87">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B88">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="B89">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="B90">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.99</v>
+      </c>
+      <c r="B91">
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="B92">
+        <v>7884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="B93">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B94">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B95">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.995</v>
+      </c>
+      <c r="B96">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.996</v>
+      </c>
+      <c r="B97">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.997</v>
+      </c>
+      <c r="B98">
+        <v>7924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.998</v>
+      </c>
+      <c r="B99">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.999</v>
+      </c>
+      <c r="B100">
+        <v>7960</v>
       </c>
     </row>
   </sheetData>
